--- a/sc2002/target/classes/Replenishment_Requests.xlsx
+++ b/sc2002/target/classes/Replenishment_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Request ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>AMOXICILLIN</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -607,6 +610,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F9" t="s" s="6">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/target/classes/Replenishment_Requests.xlsx
+++ b/sc2002/target/classes/Replenishment_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Request ID</t>
   </si>
@@ -37,34 +37,25 @@
     <t>P001</t>
   </si>
   <si>
-    <t>15/10/2024</t>
+    <t>27/10/2024</t>
+  </si>
+  <si>
+    <t>IBUPROFEN</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>AMOXICILLIN</t>
   </si>
   <si>
     <t>PARACETAMOL</t>
   </si>
   <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
     <t>REJECTED</t>
-  </si>
-  <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>20/10/2024</t>
-  </si>
-  <si>
-    <t>IBUPROFEN</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>24/10/2024</t>
-  </si>
-  <si>
-    <t>AMOXICILLIN</t>
   </si>
 </sst>
 </file>
@@ -82,7 +73,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -114,9 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -125,10 +116,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -436,21 +424,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="12.290714285714287"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="13.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.290714285714287"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,164 +458,64 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F2" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F4" t="s" s="5">
         <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
-        <v>50</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="F8" t="s" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="E9" t="n" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="F9" t="s" s="6">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Replenishment_Requests.xlsx
+++ b/sc2002/target/classes/Replenishment_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Request ID</t>
   </si>
@@ -49,13 +49,19 @@
     <t>AMOXICILLIN</t>
   </si>
   <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
     <t>PARACETAMOL</t>
   </si>
   <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
     <t>REJECTED</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>02/11/2024</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -116,7 +122,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -424,7 +430,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -458,64 +464,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="n" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="F2" t="s" s="5">
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="n" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F3" t="s" s="5">
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n" s="4">
+    <row r="5">
+      <c r="A5" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n" s="4">
         <v>10.0</v>
       </c>
-      <c r="F4" t="s" s="5">
-        <v>13</v>
+      <c r="F5" t="s" s="5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Replenishment_Requests.xlsx
+++ b/sc2002/target/classes/Replenishment_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Request ID</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>REJECTED</t>
-  </si>
-  <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>02/11/2024</t>
   </si>
 </sst>
 </file>
@@ -430,18 +424,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.290714285714287"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="1" max="1" style="4" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -524,26 +518,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="E5" t="n" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="F5" t="s" s="5">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/target/classes/Replenishment_Requests.xlsx
+++ b/sc2002/target/classes/Replenishment_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Request ID</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>REJECTED</t>
+  </si>
+  <si>
+    <t>02/11/2024</t>
   </si>
 </sst>
 </file>
@@ -424,18 +427,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.290714285714287"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="13.576428571428572"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="13.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -518,6 +521,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/target/classes/Replenishment_Requests.xlsx
+++ b/sc2002/target/classes/Replenishment_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Request ID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>02/11/2024</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -541,6 +544,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/target/classes/Replenishment_Requests.xlsx
+++ b/sc2002/target/classes/Replenishment_Requests.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Request ID</t>
   </si>
@@ -430,7 +430,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -564,6 +564,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n" s="4">
+        <v>20.0</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
